--- a/BloodstreamAPI/testData/SearchByTabCount.xlsx
+++ b/BloodstreamAPI/testData/SearchByTabCount.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{88BCF673-3982-4149-AF99-0770FD29DBB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E91B01-CD08-4B39-A92C-121195420A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="19500" windowHeight="15660" tabRatio="715" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConclToApprove" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,6 @@
     <sheet name="SearchFilter_PUTResetFilter" sheetId="35" r:id="rId28"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="48">
   <si>
     <t>EndPoint</t>
   </si>
@@ -189,6 +188,9 @@
   </si>
   <si>
     <t>IDT5_NRc</t>
+  </si>
+  <si>
+    <t>Assays:123</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1676,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1778,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2850,7 +2852,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2957,7 +2959,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
